--- a/new original/_Lang_Chinese/Lang/CN/Dialog/Drama/olderyoungersister.xlsx
+++ b/new original/_Lang_Chinese/Lang/CN/Dialog/Drama/olderyoungersister.xlsx
@@ -761,7 +761,7 @@
     <t xml:space="preserve">应急零食</t>
   </si>
   <si>
-    <t xml:space="preserve">为#brother2做的充满爱意的便当</t>
+    <t xml:space="preserve">为#brother2做的充满爱意的盒饭</t>
   </si>
   <si>
     <t xml:space="preserve">为#brother2写的充满爱意的信</t>
